--- a/biology/Botanique/Ipomoea_batatoides/Ipomoea_batatoides.xlsx
+++ b/biology/Botanique/Ipomoea_batatoides/Ipomoea_batatoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea batatoides est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales du continent américain.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea batatoides est une plante grimpante vivace, à tiges volubiles, généralement glabres, pouvant atteindre 4 mètres de long. Les feuilles, pétiolées, de 3 à 11 cm de long sur 2,5 à 8 cm de large, ont une limbe ovale, légèrement cordé avec des oreillettes arrondies, brièvement acuminé à l'apex aigu, parfois légèrement ondulé-denticulé ou faiblement trilobé, glabre ou rarement pubescent. La face inférieure est plus claire, souvent ponctuée de glandes ou de poils minuscules. Le pétiole, de 2 à 7 cm de long, est typiquement mince[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea batatoides est une plante grimpante vivace, à tiges volubiles, généralement glabres, pouvant atteindre 4 mètres de long. Les feuilles, pétiolées, de 3 à 11 cm de long sur 2,5 à 8 cm de large, ont une limbe ovale, légèrement cordé avec des oreillettes arrondies, brièvement acuminé à l'apex aigu, parfois légèrement ondulé-denticulé ou faiblement trilobé, glabre ou rarement pubescent. La face inférieure est plus claire, souvent ponctuée de glandes ou de poils minuscules. Le pétiole, de 2 à 7 cm de long, est typiquement mince. 
 L'inflorescence est composée de cymes axillaires, lâches, portées par des pédoncules de 3 à 10 cm de long, et sous-tendues par des bractéoles filiformes, caduques, de 4 mm de long.
-Le calice est composé de sépales subégaux, coriaces et quelque peu convexes, de 6 à 8  cm de long sur 5 mm de large, largement oblongs, arrondis, généralement glabres, aux bords étroitement scariés[2]. 
+Le calice est composé de sépales subégaux, coriaces et quelque peu convexes, de 6 à 8  cm de long sur 5 mm de large, largement oblongs, arrondis, généralement glabres, aux bords étroitement scariés. 
 La corolle en forme d'entonnoir (infundibuliforme), de 4 à 8 cm de long, s'élargit progressivement au-dessus d'un tube basal étroit. Elle est  glabre, généralement rose ou, moins communément, blanche, au limbe non lobé de 5 à 6 cm de diamètre. 
-Les fruits sont des capsules ellipsoïdes, de 8 × 6 mm de long, glabres, rostrées (munies d'un bec). Les graines sont  pileuses sur les bords avec de longs poils blancs[2].
+Les fruits sont des capsules ellipsoïdes, de 8 × 6 mm de long, glabres, rostrées (munies d'un bec). Les graines sont  pileuses sur les bords avec de longs poils blancs.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea batatoides est une espèce répandue dans les forêts tropicales humides à des altitudes inférieures à 900 m, du nord de la Bolivie et du Brésil jusqu'au centre du Mexique, mais largement absente des plaines amazoniennes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea batatoides est une espèce répandue dans les forêts tropicales humides à des altitudes inférieures à 900 m, du nord de la Bolivie et du Brésil jusqu'au centre du Mexique, mais largement absente des plaines amazoniennes.
 </t>
         </is>
       </c>
@@ -579,15 +595,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (4 janvier 2021)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 janvier 2021) :
 Ipomoea dimorphophylla Greenm.
 Ipomoea glabriuscula House
 Ipomoea microsticta Hallier f.
 Ipomoea reidellii C.F.W. Meissn.
-Ipomoea teruae Ant. Molina &amp; L.O. Williams
-Variétés
-Selon Tropicos                                           (4 janvier 2021)[3] (Attention liste brute contenant possiblement des synonymes) :
+Ipomoea teruae Ant. Molina &amp; L.O. Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ipomoea_batatoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_batatoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 janvier 2021) (Attention liste brute contenant possiblement des synonymes) :
 Ipomoea batatoides var. angulata Choisy
 Ipomoea batatoides var. tomentosa Glaz.</t>
         </is>
